--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il34</t>
   </si>
   <si>
     <t>Csf1r</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H2">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I2">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J2">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N2">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O2">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P2">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q2">
-        <v>2.305164534374444</v>
+        <v>2.029564544013334</v>
       </c>
       <c r="R2">
-        <v>20.74648080937</v>
+        <v>18.26608089612</v>
       </c>
       <c r="S2">
-        <v>0.0004782981295699332</v>
+        <v>0.0007305101921031915</v>
       </c>
       <c r="T2">
-        <v>0.0004782981295699332</v>
+        <v>0.0007305101921031913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H3">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I3">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J3">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.784709</v>
       </c>
       <c r="O3">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P3">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q3">
-        <v>15.78524321363622</v>
+        <v>8.303584526126667</v>
       </c>
       <c r="R3">
-        <v>142.067188922726</v>
+        <v>74.73226073513999</v>
       </c>
       <c r="S3">
-        <v>0.003275276966699278</v>
+        <v>0.002988746105768602</v>
       </c>
       <c r="T3">
-        <v>0.003275276966699279</v>
+        <v>0.002988746105768602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H4">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I4">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J4">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N4">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O4">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P4">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q4">
-        <v>16.82644133107044</v>
+        <v>2.782937742686667</v>
       </c>
       <c r="R4">
-        <v>151.437971979634</v>
+        <v>25.04643968418</v>
       </c>
       <c r="S4">
-        <v>0.003491314956462847</v>
+        <v>0.001001675157864752</v>
       </c>
       <c r="T4">
-        <v>0.003491314956462847</v>
+        <v>0.001001675157864752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.018404666666666</v>
+        <v>2.11382</v>
       </c>
       <c r="H5">
-        <v>12.055214</v>
+        <v>6.34146</v>
       </c>
       <c r="I5">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="J5">
-        <v>0.1784894308593523</v>
+        <v>0.1611092823235492</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N5">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O5">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P5">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q5">
-        <v>825.3154628214816</v>
+        <v>434.49120279104</v>
       </c>
       <c r="R5">
-        <v>7427.839165393335</v>
+        <v>3910.42082511936</v>
       </c>
       <c r="S5">
-        <v>0.1712445408066203</v>
+        <v>0.1563883508678126</v>
       </c>
       <c r="T5">
-        <v>0.1712445408066203</v>
+        <v>0.1563883508678126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>13.056111</v>
       </c>
       <c r="I6">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J6">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N6">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O6">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P6">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q6">
-        <v>2.496553278445</v>
+        <v>4.178567706538001</v>
       </c>
       <c r="R6">
-        <v>22.468979506005</v>
+        <v>37.607109358842</v>
       </c>
       <c r="S6">
-        <v>0.000518009341912755</v>
+        <v>0.001504010457328532</v>
       </c>
       <c r="T6">
-        <v>0.000518009341912755</v>
+        <v>0.001504010457328532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>13.056111</v>
       </c>
       <c r="I7">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J7">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.784709</v>
       </c>
       <c r="O7">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P7">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q7">
         <v>17.095829867411</v>
@@ -883,10 +883,10 @@
         <v>153.862468806699</v>
       </c>
       <c r="S7">
-        <v>0.003547210330150015</v>
+        <v>0.006153378071884489</v>
       </c>
       <c r="T7">
-        <v>0.003547210330150016</v>
+        <v>0.006153378071884489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>13.056111</v>
       </c>
       <c r="I8">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J8">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N8">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O8">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P8">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q8">
-        <v>18.223474569049</v>
+        <v>5.729649650807001</v>
       </c>
       <c r="R8">
-        <v>164.011271121441</v>
+        <v>51.566846857263</v>
       </c>
       <c r="S8">
-        <v>0.003781185104431916</v>
+        <v>0.002062298279422203</v>
       </c>
       <c r="T8">
-        <v>0.003781185104431916</v>
+        <v>0.002062298279422203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>13.056111</v>
       </c>
       <c r="I9">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="J9">
-        <v>0.1933087062267439</v>
+        <v>0.3316997462960574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N9">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O9">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P9">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q9">
-        <v>893.8381593734991</v>
+        <v>894.5519442152639</v>
       </c>
       <c r="R9">
-        <v>8044.543434361492</v>
+        <v>8050.967497937375</v>
       </c>
       <c r="S9">
-        <v>0.1854623014502492</v>
+        <v>0.3219800594874221</v>
       </c>
       <c r="T9">
-        <v>0.1854623014502492</v>
+        <v>0.3219800594874221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.14296233333333</v>
+        <v>6.620393</v>
       </c>
       <c r="H10">
-        <v>42.428887</v>
+        <v>19.861179</v>
       </c>
       <c r="I10">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869075</v>
       </c>
       <c r="J10">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N10">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O10">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P10">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q10">
-        <v>8.113133914120555</v>
+        <v>6.356508548615334</v>
       </c>
       <c r="R10">
-        <v>73.01820522708499</v>
+        <v>57.20857693753801</v>
       </c>
       <c r="S10">
-        <v>0.001683392538019985</v>
+        <v>0.002287926390245444</v>
       </c>
       <c r="T10">
-        <v>0.001683392538019985</v>
+        <v>0.002287926390245444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.14296233333333</v>
+        <v>6.620393</v>
       </c>
       <c r="H11">
-        <v>42.428887</v>
+        <v>19.861179</v>
       </c>
       <c r="I11">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869075</v>
       </c>
       <c r="J11">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869074</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.784709</v>
       </c>
       <c r="O11">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P11">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q11">
-        <v>55.55689849876477</v>
+        <v>26.00646832354566</v>
       </c>
       <c r="R11">
-        <v>500.0120864888829</v>
+        <v>234.058214911911</v>
       </c>
       <c r="S11">
-        <v>0.01152748979103867</v>
+        <v>0.009360623798340311</v>
       </c>
       <c r="T11">
-        <v>0.01152748979103867</v>
+        <v>0.009360623798340309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.14296233333333</v>
+        <v>6.620393</v>
       </c>
       <c r="H12">
-        <v>42.428887</v>
+        <v>19.861179</v>
       </c>
       <c r="I12">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869075</v>
       </c>
       <c r="J12">
-        <v>0.6282018629139038</v>
+        <v>0.5045873181869074</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N12">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O12">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P12">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q12">
-        <v>59.22144375438855</v>
+        <v>8.716040888589667</v>
       </c>
       <c r="R12">
-        <v>532.9929937894969</v>
+        <v>78.44436799730701</v>
       </c>
       <c r="S12">
-        <v>0.01228784555538973</v>
+        <v>0.00313720335856492</v>
       </c>
       <c r="T12">
-        <v>0.01228784555538973</v>
+        <v>0.003137203358564919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.620393</v>
+      </c>
+      <c r="H13">
+        <v>19.861179</v>
+      </c>
+      <c r="I13">
+        <v>0.5045873181869075</v>
+      </c>
+      <c r="J13">
+        <v>0.5045873181869074</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>205.547872</v>
+      </c>
+      <c r="N13">
+        <v>616.643616</v>
+      </c>
+      <c r="O13">
+        <v>0.9706973342091134</v>
+      </c>
+      <c r="P13">
+        <v>0.9706973342091134</v>
+      </c>
+      <c r="Q13">
+        <v>1360.807692953696</v>
+      </c>
+      <c r="R13">
+        <v>12247.26923658326</v>
+      </c>
+      <c r="S13">
+        <v>0.4898015646397568</v>
+      </c>
+      <c r="T13">
+        <v>0.4898015646397567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.14296233333333</v>
-      </c>
-      <c r="H13">
-        <v>42.428887</v>
-      </c>
-      <c r="I13">
-        <v>0.6282018629139038</v>
-      </c>
-      <c r="J13">
-        <v>0.6282018629139038</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>205.3838603333334</v>
-      </c>
-      <c r="N13">
-        <v>616.1515810000001</v>
-      </c>
-      <c r="O13">
-        <v>0.9594099772863248</v>
-      </c>
-      <c r="P13">
-        <v>0.9594099772863249</v>
-      </c>
-      <c r="Q13">
-        <v>2904.736200568927</v>
-      </c>
-      <c r="R13">
-        <v>26142.62580512035</v>
-      </c>
-      <c r="S13">
-        <v>0.6027031350294554</v>
-      </c>
-      <c r="T13">
-        <v>0.6027031350294555</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.034161</v>
+      </c>
+      <c r="H14">
+        <v>0.102483</v>
+      </c>
+      <c r="I14">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J14">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9601406666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.880422</v>
+      </c>
+      <c r="O14">
+        <v>0.004534252661098308</v>
+      </c>
+      <c r="P14">
+        <v>0.004534252661098308</v>
+      </c>
+      <c r="Q14">
+        <v>0.032799365314</v>
+      </c>
+      <c r="R14">
+        <v>0.295194287826</v>
+      </c>
+      <c r="S14">
+        <v>1.180562142114141E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.18056214211414E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.034161</v>
+      </c>
+      <c r="H15">
+        <v>0.102483</v>
+      </c>
+      <c r="I15">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J15">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.928236333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.784709</v>
+      </c>
+      <c r="O15">
+        <v>0.01855104847259158</v>
+      </c>
+      <c r="P15">
+        <v>0.01855104847259158</v>
+      </c>
+      <c r="Q15">
+        <v>0.134192481383</v>
+      </c>
+      <c r="R15">
+        <v>1.207732332447</v>
+      </c>
+      <c r="S15">
+        <v>4.830049659817829E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.830049659817828E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.034161</v>
+      </c>
+      <c r="H16">
+        <v>0.102483</v>
+      </c>
+      <c r="I16">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J16">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.316544333333334</v>
+      </c>
+      <c r="N16">
+        <v>3.949633</v>
+      </c>
+      <c r="O16">
+        <v>0.006217364657196653</v>
+      </c>
+      <c r="P16">
+        <v>0.006217364657196652</v>
+      </c>
+      <c r="Q16">
+        <v>0.04497447097100001</v>
+      </c>
+      <c r="R16">
+        <v>0.404770238739</v>
+      </c>
+      <c r="S16">
+        <v>1.618786134477761E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.61878613447776E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.034161</v>
+      </c>
+      <c r="H17">
+        <v>0.102483</v>
+      </c>
+      <c r="I17">
+        <v>0.002603653193486089</v>
+      </c>
+      <c r="J17">
+        <v>0.002603653193486088</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>205.547872</v>
+      </c>
+      <c r="N17">
+        <v>616.643616</v>
+      </c>
+      <c r="O17">
+        <v>0.9706973342091134</v>
+      </c>
+      <c r="P17">
+        <v>0.9706973342091134</v>
+      </c>
+      <c r="Q17">
+        <v>7.021720855392</v>
+      </c>
+      <c r="R17">
+        <v>63.195487698528</v>
+      </c>
+      <c r="S17">
+        <v>0.002527359214121991</v>
+      </c>
+      <c r="T17">
+        <v>0.002527359214121991</v>
       </c>
     </row>
   </sheetData>
